--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0027 - Mengunci Gembok.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0027 - Mengunci Gembok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\Digisales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD0DB4-33CC-47DA-B4C9-60A85C1AD543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B3D7AA-AED7-45F1-BAD8-9548271CC046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0027" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -126,6 +126,9 @@
     <t xml:space="preserve"> · Login sebagai Admin SLN
  · Masuk ke menu Monitoring and Reset
  · Memastikan icon gembok sudah terkunci</t>
+  </si>
+  <si>
+    <t>Wilayah_05_202206_31.zip</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +637,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6">
-        <v>1121</v>
+        <v>1177</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -678,7 +681,9 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -711,7 +716,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6">
-        <v>1121</v>
+        <v>1177</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
